--- a/Dokumentumok/funkciok.xlsx
+++ b/Dokumentumok/funkciok.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamen\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zsombor\Documents\GitHub\DuszaWorkshop-KapOS\Dokumentumok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D9CDBE4-8DE3-4310-9794-1C630A6EE956}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64798282-8B23-4424-A01B-FB9396754A2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{FF5DB853-4D41-402E-8C5C-7EB050B5F93F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{FF5DB853-4D41-402E-8C5C-7EB050B5F93F}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -36,17 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="20">
   <si>
     <t>Második Demó</t>
   </si>
   <si>
-    <t>Jelenlegi Funkciók</t>
-  </si>
-  <si>
-    <t>Végső fázis</t>
-  </si>
-  <si>
     <t>Első Demó</t>
   </si>
   <si>
@@ -62,12 +56,6 @@
     <t>Fejlett Chat funkciók</t>
   </si>
   <si>
-    <t>Becenevek</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Barátlista</t>
-  </si>
-  <si>
     <t>Hostolt Weboldal</t>
   </si>
   <si>
@@ -99,13 +87,22 @@
   </si>
   <si>
     <t>Alap Chat Funkciók</t>
+  </si>
+  <si>
+    <t>Jelenlegi Fázis</t>
+  </si>
+  <si>
+    <t>Barátlista</t>
+  </si>
+  <si>
+    <t>Harmadik Demó</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +124,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Comfortaa"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="5">
@@ -167,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -178,8 +181,11 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -487,7 +493,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,272 +501,256 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4089377C-D4FB-4BD5-A38A-0B7332CDFC40}">
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.6328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="8.6328125" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="17.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A1" s="5"/>
       <c r="B1" s="4" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>19</v>
-      </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>